--- a/实验室/数据合集/DualE改.xlsx
+++ b/实验室/数据合集/DualE改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998AC4D-2F82-43DD-A968-121165113C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A2844-52D1-43FD-8360-C1B5EF1B0BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="2550" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15k-237" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -124,6 +124,37 @@
   </si>
   <si>
     <t>QuatRE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatMSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将QuatRE中的Vr,1和Vr,2改成Vr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用FB15K237的参数跑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能将QuatRE中的Vr,1和Vr,2改成Vr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将QuatRE中的Vr,1和Vr,2设为相同的变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能将QuatRE中的Vr,1和Vr,2设为相同的变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g(v1,v2)=v1、v2的Hamilton积</t>
+  </si>
+  <si>
+    <t>效果很差</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +212,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +252,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,8 +277,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,10 +305,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="警告文本" xfId="4" builtinId="11"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,7 +632,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -645,7 +711,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>100.18467699999999</v>
       </c>
       <c r="E3">
@@ -701,7 +767,7 @@
       <c r="E5" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>26.9</v>
       </c>
       <c r="G5" s="9">
@@ -754,13 +820,13 @@
       <c r="E7">
         <v>0.36386000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>26.773700000000002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>39.834400000000002</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>55.851199999999999</v>
       </c>
       <c r="I7" t="s">
@@ -782,6 +848,30 @@
       </c>
       <c r="C8" t="s">
         <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>88.377601999999996</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.36680299999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>26.9056</v>
+      </c>
+      <c r="G8" s="9">
+        <v>40.386499999999998</v>
+      </c>
+      <c r="H8" s="9">
+        <v>56.361800000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -795,16 +885,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581C6D-DD0E-45F8-833A-F098410ECFD2}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="12" max="12" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="25.5" customHeight="1">
@@ -899,7 +991,7 @@
       <c r="D4">
         <v>2270</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0.49199999999999999</v>
       </c>
       <c r="F4" s="4">
@@ -922,7 +1014,7 @@
       <c r="D5" s="4">
         <v>1986</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>0.49299999999999999</v>
       </c>
       <c r="F5">
@@ -971,7 +1063,7 @@
       <c r="D7">
         <v>2342.1821289999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0.49206899999999998</v>
       </c>
       <c r="F7" s="5">
@@ -1024,6 +1116,9 @@
       <c r="J8" t="s">
         <v>19</v>
       </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
@@ -1035,7 +1130,7 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>2016.0157469999999</v>
       </c>
       <c r="E9">
@@ -1049,6 +1144,15 @@
       </c>
       <c r="H9">
         <v>58.359900000000003</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1064,7 +1168,7 @@
       <c r="D10">
         <v>2180.8237300000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.49307400000000001</v>
       </c>
       <c r="F10" s="4">
@@ -1075,6 +1179,161 @@
       </c>
       <c r="H10">
         <v>58.232300000000002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>20210904</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>20210904</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2064.1088869999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.49429800000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44.081000000000003</v>
+      </c>
+      <c r="G12" s="4">
+        <v>51.850700000000003</v>
+      </c>
+      <c r="H12" s="4">
+        <v>59.1417</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>20210905</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>20210906</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7927.5146480000003</v>
+      </c>
+      <c r="E14" s="11">
+        <v>6.9350000000000002E-3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1.1966000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/实验室/数据合集/DualE改.xlsx
+++ b/实验室/数据合集/DualE改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A2844-52D1-43FD-8360-C1B5EF1B0BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46B75E-A839-4BDB-A434-EB2D9C5F3CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
+    <workbookView xWindow="32520" yWindow="1170" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{AB23B43C-DD56-4081-B26D-8F17546BFFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15k-237" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -147,14 +147,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不能将QuatRE中的Vr,1和Vr,2设为相同的变量</t>
+    <t>效果很差</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>g(v1,v2)=v1、v2的Hamilton积</t>
-  </si>
-  <si>
-    <t>效果很差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g(v1,v2)=v1*v2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBEC78B-E61F-4E33-A449-85FFE18756F9}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -640,7 +641,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,18 +666,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -699,9 +699,8 @@
         <v>55</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20210901</v>
       </c>
@@ -727,9 +726,8 @@
         <v>53.996899999999997</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -752,9 +750,8 @@
         <v>55.9</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -777,9 +774,8 @@
         <v>56.3</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -802,9 +798,8 @@
         <v>56.3</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20210812</v>
       </c>
@@ -830,16 +825,13 @@
         <v>55.851199999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20210902</v>
       </c>
@@ -865,17 +857,14 @@
         <v>56.361800000000002</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K16">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -885,17 +874,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED581C6D-DD0E-45F8-833A-F098410ECFD2}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="47.25" customWidth="1"/>
     <col min="12" max="12" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1262,7 +1251,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>20210905</v>
+        <v>20210908</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1270,21 +1259,11 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" t="s">
         <v>15</v>
       </c>
@@ -1293,9 +1272,6 @@
       </c>
       <c r="K13" t="s">
         <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1333,7 +1309,45 @@
         <v>30</v>
       </c>
       <c r="L14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>20210907</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7860.1103519999997</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.2712</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
